--- a/resource/registrants/registrants.xlsx
+++ b/resource/registrants/registrants.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I168"/>
+  <dimension ref="A1:I167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5693,7 +5693,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>정재헌</t>
+          <t>정태희</t>
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
@@ -5704,39 +5704,39 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>o</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>YC America</t>
+          <t>Waymo</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>President</t>
+          <t>Software Engineer</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>jae.jeong@yccorp.com</t>
+          <t>wwee3631@gmail.com</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>+1 408-209-0602</t>
+          <t>+1 669-977-9158</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https:///linkedin.com/in/jae-jaeheon-jeong-39b99434</t>
+          <t>https://www.linkedin.com/in/taeheejeong/</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>정태희</t>
+          <t>정한솔</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
@@ -5752,34 +5752,34 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Waymo</t>
+          <t>Stanford University</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Software Engineer</t>
+          <t>Student</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>wwee3631@gmail.com</t>
+          <t>hansol2@stanford.edu</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>+1 669-977-9158</t>
+          <t>+1 630-698-4717</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/taeheejeong/</t>
+          <t>https:///linkedin.com/in/esther-hansol-chung-071b9b19b</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>정한솔</t>
+          <t>정혜령</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
@@ -5790,39 +5790,39 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>x</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Stanford University</t>
+          <t>Samsung Electronics</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>Sr. Marketing Communications Specialist</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>hansol2@stanford.edu</t>
+          <t>lydia.chung1@gmail.com</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>+1 630-698-4717</t>
+          <t>+1 669-342-9825</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https:///linkedin.com/in/esther-hansol-chung-071b9b19b</t>
+          <t>https://www.linkedin.com/in/lydia-chung-98a4671a0/</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>정혜령</t>
+          <t>정휘용</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
@@ -5833,39 +5833,39 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>o</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Samsung Electronics</t>
+          <t>Synopsys</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Sr. Marketing Communications Specialist</t>
+          <t>Director of Sales and Business Development</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>lydia.chung1@gmail.com</t>
+          <t>largon@gmail.com</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>+1 669-342-9825</t>
+          <t>+1 408-497-3022</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/lydia-chung-98a4671a0/</t>
+          <t>https://www.linkedin.com/in/lukehychung/</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>정휘용</t>
+          <t>정희진</t>
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
@@ -5881,42 +5881,38 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Synopsys</t>
+          <t>SK hynix</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Director of Sales and Business Development</t>
+          <t>Head of Venture Investment</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>largon@gmail.com</t>
+          <t>heejin.chung@us.skhynix.com</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>+1 408-497-3022</t>
+          <t>+1 408-628-3607</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/lukehychung/</t>
+          <t>https://linkedin.com/in/heejin-chung-3576351</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>정희진</t>
+          <t>조계현</t>
         </is>
       </c>
       <c r="B141" t="inlineStr"/>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr">
         <is>
           <t>o</t>
@@ -5924,194 +5920,198 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>SK hynix</t>
+          <t>MVLASF Holdings</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Head of Venture Investment</t>
+          <t>CEO</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>heejin.chung@us.skhynix.com</t>
+          <t>andrea.jo@mvlasf.com</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>+1 408-628-3607</t>
+          <t>+1 408-220-4041</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://linkedin.com/in/heejin-chung-3576351</t>
+          <t>https://www.linkedin.com/in/gyehyon-andrea-jo</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>조계현</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr"/>
-      <c r="C142" t="inlineStr"/>
+          <t>조민선</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>x</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>MVLASF Holdings</t>
+          <t>stealth</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>CEO</t>
+          <t>stealth</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>andrea.jo@mvlasf.com</t>
+          <t>christine7597@gmail.com</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>+1 408-220-4041</t>
+          <t>+1 510-561-9348</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/gyehyon-andrea-jo</t>
+          <t>https://www.linkedin.com/in/christine-c-5b8b4b168/</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>조민선</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+          <t>조성정</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>o</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>stealth</t>
+          <t>Meta</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>stealth</t>
+          <t>Senior Staff SWE</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>christine7597@gmail.com</t>
+          <t>sjcho123@gmail.com</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>+1 510-561-9348</t>
+          <t>+1 650-215-8119</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/christine-c-5b8b4b168/</t>
+          <t>https://www.linkedin.com/in/sjcho</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>조성정</t>
+          <t>조시영</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
       <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Meta</t>
+          <t>Keeworks</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Senior Staff SWE</t>
+          <t>Board Member</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>sjcho123@gmail.com</t>
+          <t>siyungj@gmail.com</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>+1 650-215-8119</t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/sjcho</t>
-        </is>
-      </c>
+          <t>+82 10-9459-4385</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>조시영</t>
+          <t>조아라</t>
         </is>
       </c>
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr"/>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Keeworks</t>
+          <t>Stanford University</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Board Member</t>
+          <t>Postdoctoral Researcher</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>siyungj@gmail.com</t>
+          <t>choara@stanford.edu</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>+82 10-9459-4385</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr"/>
+          <t>+1 669-260-4894</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/ara-cho-508b7625b/</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>조아라</t>
+          <t>조정현</t>
         </is>
       </c>
       <c r="B146" t="inlineStr"/>
-      <c r="C146" t="inlineStr"/>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="D146" t="inlineStr">
         <is>
           <t>o</t>
@@ -6119,42 +6119,38 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Stanford University</t>
+          <t>Audi of America</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Postdoctoral Researcher</t>
+          <t>ADAS Software Engineer</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>choara@stanford.edu</t>
+          <t>jeonghyunjason@gmail.com</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>+1 669-260-4894</t>
+          <t>+1 415-444-6985</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/ara-cho-508b7625b/</t>
+          <t>https://www.linkedin.com/in/jeonghyunjo/</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>조정현</t>
+          <t>주은광</t>
         </is>
       </c>
       <c r="B147" t="inlineStr"/>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr">
         <is>
           <t>o</t>
@@ -6162,37 +6158,41 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Audi of America</t>
+          <t>SynStation</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>ADAS Software Engineer</t>
+          <t>CEO</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>jeonghyunjason@gmail.com</t>
+          <t>eugene@wasd3r.xyz</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>+1 415-444-6985</t>
+          <t>+1 510-499-9248</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/jeonghyunjo/</t>
+          <t>https:///Linkedin.com/in/ekjoo</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>주은광</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr"/>
+          <t>진승환</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>SynStation</t>
+          <t>StartupSprintK</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -6211,31 +6211,27 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>eugene@wasd3r.xyz</t>
+          <t>seunghwan.jin@gmail.com</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>+1 510-499-9248</t>
+          <t>+1 650-695-8692</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https:///Linkedin.com/in/ekjoo</t>
+          <t>https://www.linkedin.com/in/seunghwan-jin/</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>진승환</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+          <t>진용진</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr"/>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr">
         <is>
@@ -6244,38 +6240,42 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>StartupSprintK</t>
+          <t>April Labs</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>CEO</t>
+          <t>Product Manager</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>seunghwan.jin@gmail.com</t>
+          <t>yongjin.jin@gmail.com</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>+1 650-695-8692</t>
+          <t>+1 650-289-8487</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/seunghwan-jin/</t>
+          <t>https://www.linkedin.com/in/yongjinjin</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>진용진</t>
+          <t>차동준</t>
         </is>
       </c>
       <c r="B150" t="inlineStr"/>
-      <c r="C150" t="inlineStr"/>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="D150" t="inlineStr">
         <is>
           <t>o</t>
@@ -6283,37 +6283,41 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>April Labs</t>
+          <t>Higher Life Ventures</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Product Manager</t>
+          <t>Managing Partner</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>yongjin.jin@gmail.com</t>
+          <t>dongjoon@hlv.vc</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>+1 650-289-8487</t>
+          <t>+1 650-336-4372</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/yongjinjin</t>
+          <t>https://www.linkedin.com/in/djcha3</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>차동준</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr"/>
+          <t>천정희</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="C151" t="inlineStr">
         <is>
           <t>o</t>
@@ -6321,46 +6325,42 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>x</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Higher Life Ventures</t>
+          <t>CryptoLab Inc.</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Managing Partner</t>
+          <t>CEO</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>dongjoon@hlv.vc</t>
+          <t>jhcheon@snu.ac.kr</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>+1 650-336-4372</t>
+          <t>+82 10-9767-1912</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/djcha3</t>
+          <t>https://www.linkedin.com/in/jung-hee-cheon-35721918/</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>천정희</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+          <t>최경환</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr"/>
       <c r="C152" t="inlineStr">
         <is>
           <t>o</t>
@@ -6368,199 +6368,199 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>o</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>CryptoLab Inc.</t>
+          <t>Independent</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>CEO</t>
+          <t>Robot Learning Engineer</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>jhcheon@snu.ac.kr</t>
+          <t>choe.kyoung@gmail.com</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>+82 10-9767-1912</t>
+          <t>+1 872-818-4539</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/jung-hee-cheon-35721918/</t>
+          <t>https://www.linkedin.com/in/kywch</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>최경환</t>
+          <t>최영</t>
         </is>
       </c>
       <c r="B153" t="inlineStr"/>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Independent</t>
+          <t>Regent University</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Robot Learning Engineer</t>
+          <t>Professor</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>choe.kyoung@gmail.com</t>
+          <t>ychoi@regent.edu</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>+1 872-818-4539</t>
-        </is>
-      </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/kywch</t>
-        </is>
-      </c>
+          <t>+1 757-353-4949</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>최영</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr"/>
+          <t>최종록</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Regent University</t>
+          <t>Samsung SDI</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Professor</t>
+          <t>Pro</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>ychoi@regent.edu</t>
+          <t>jongrock@gmail.com</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>+1 757-353-4949</t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr"/>
+          <t>+1 650-942-1052</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/종록-최-212122246</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>최종록</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr"/>
-      <c r="D155" t="inlineStr"/>
+          <t>최지호</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Samsung SDI</t>
+          <t>Stanford University</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Pro</t>
+          <t>Student</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>jongrock@gmail.com</t>
+          <t>choejms@stanford.edu</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>+1 650-942-1052</t>
+          <t>+1 650-507-5712</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/종록-최-212122246</t>
+          <t>https://www.linkedin.com/in/jeeho-choe-84a143156/</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>최지호</t>
+          <t>최해준</t>
         </is>
       </c>
       <c r="B156" t="inlineStr"/>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>o</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Stanford University</t>
+          <t>Electronic Arts</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>Software Engineer</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>choejms@stanford.edu</t>
+          <t>haejoonchoi@outlook.com</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>+1 650-507-5712</t>
+          <t>+1 778-899-6669</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/jeeho-choe-84a143156/</t>
+          <t>https:///LinkedIn.com/in/haejoonchoi</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>최해준</t>
+          <t>팽진희</t>
         </is>
       </c>
       <c r="B157" t="inlineStr"/>
-      <c r="C157" t="inlineStr"/>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="D157" t="inlineStr">
         <is>
           <t>o</t>
@@ -6568,42 +6568,34 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Electronic Arts</t>
+          <t>Stanford University</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Software Engineer</t>
+          <t>Graduate Student</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>haejoonchoi@outlook.com</t>
+          <t>jhpaeng@stanford.edu</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>+1 778-899-6669</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>https:///LinkedIn.com/in/haejoonchoi</t>
-        </is>
-      </c>
+          <t>+1 650-512-6379</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>팽진희</t>
+          <t>하영욱</t>
         </is>
       </c>
       <c r="B158" t="inlineStr"/>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr">
         <is>
           <t>o</t>
@@ -6611,30 +6603,34 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Stanford University</t>
+          <t>Valleyinnovationpartners</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Graduate Student</t>
+          <t>Co-Founder</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>jhpaeng@stanford.edu</t>
+          <t>ywha.p2o.@gmail.com</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>+1 650-512-6379</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr"/>
+          <t>+1 408-747-7247</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>https:///www.linkedin.com/in/young-wook-ha</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>하영욱</t>
+          <t>한수정</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
@@ -6646,38 +6642,42 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Valleyinnovationpartners</t>
+          <t>Stanford GSB</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Co-Founder</t>
+          <t>MBA1</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>ywha.p2o.@gmail.com</t>
+          <t>sjhan26@stanford.edu</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>+1 408-747-7247</t>
+          <t>+1 650-512-7236</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https:///www.linkedin.com/in/young-wook-ha</t>
+          <t>https:///www.linkedin.com/in/han-soojung</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>한수정</t>
+          <t>허소영</t>
         </is>
       </c>
       <c r="B160" t="inlineStr"/>
-      <c r="C160" t="inlineStr"/>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="D160" t="inlineStr">
         <is>
           <t>o</t>
@@ -6685,104 +6685,100 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Stanford GSB</t>
+          <t>Samsung Semiconductor</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>MBA1</t>
+          <t>Senior Manager</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>sjhan26@stanford.edu</t>
+          <t>sungok0125@gmail.com</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>+1 650-512-7236</t>
+          <t>+1 408-340-4744</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https:///www.linkedin.com/in/han-soojung</t>
+          <t>https:///www.linkedin.com/in/ella-soy-heo</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>허소영</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr"/>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+          <t>허예랑</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Samsung Semiconductor</t>
+          <t>UClone Inc</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Senior Manager</t>
+          <t>CEO</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>sungok0125@gmail.com</t>
+          <t>danielhur@uclone.net</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>+1 408-340-4744</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>https:///www.linkedin.com/in/ella-soy-heo</t>
-        </is>
-      </c>
+          <t>+1 408-499-6876</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>허예랑</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr"/>
-      <c r="D162" t="inlineStr"/>
+          <t>홍성헌</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr"/>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>UClone Inc</t>
+          <t>Stanford University</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>CEO</t>
+          <t>Graduate Student</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>danielhur@uclone.net</t>
+          <t>wbfprp@stanford.edu</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>+1 408-499-6876</t>
+          <t>+1 650-289-8265</t>
         </is>
       </c>
       <c r="I162" t="inlineStr"/>
@@ -6790,38 +6786,26 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>홍성헌</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr"/>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>Stanford University</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Graduate Student</t>
-        </is>
-      </c>
+          <t>홍창기</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr">
         <is>
-          <t>wbfprp@stanford.edu</t>
+          <t>ck971120@gmail.com</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>+1 650-289-8265</t>
+          <t>+1 408-504-8539</t>
         </is>
       </c>
       <c r="I163" t="inlineStr"/>
@@ -6829,34 +6813,50 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>홍창기</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr"/>
-      <c r="D164" t="inlineStr"/>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr"/>
+          <t>황도연</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Stanford University</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Graduate Student (Ph.D.)</t>
+        </is>
+      </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>ck971120@gmail.com</t>
+          <t>doyunh@stanford.edu</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>+1 408-504-8539</t>
-        </is>
-      </c>
-      <c r="I164" t="inlineStr"/>
+          <t>+1 650-468-0741</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/doyun-hwang/</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>황도연</t>
+          <t>황민하</t>
         </is>
       </c>
       <c r="B165" t="inlineStr"/>
@@ -6870,128 +6870,85 @@
           <t>x</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>Stanford University</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Graduate Student (Ph.D.)</t>
-        </is>
-      </c>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr">
         <is>
-          <t>doyunh@stanford.edu</t>
-        </is>
-      </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>+1 650-468-0741</t>
-        </is>
-      </c>
+          <t>minha.hwang@gmail.com</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/doyun-hwang/</t>
+          <t>https:///linkedin.com/in/minha-hwang-7440771</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>황민하</t>
+          <t>황용현</t>
         </is>
       </c>
       <c r="B166" t="inlineStr"/>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr"/>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>WeStory</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>CTO</t>
+        </is>
+      </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>minha.hwang@gmail.com</t>
-        </is>
-      </c>
-      <c r="H166" t="inlineStr"/>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>https:///linkedin.com/in/minha-hwang-7440771</t>
-        </is>
-      </c>
+          <t>freeaion@gmail.com</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>+1 949-436-8067</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>황용현</t>
+          <t>황의선</t>
         </is>
       </c>
       <c r="B167" t="inlineStr"/>
       <c r="C167" t="inlineStr"/>
-      <c r="D167" t="inlineStr"/>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>WeStory</t>
+          <t>Stanford</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>CTO</t>
+          <t>Student</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>freeaion@gmail.com</t>
+          <t>euysun@stanford.edu</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>+1 949-436-8067</t>
-        </is>
-      </c>
-      <c r="I167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>황의선</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr"/>
-      <c r="C168" t="inlineStr"/>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>Stanford</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Student</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>euysun@stanford.edu</t>
-        </is>
-      </c>
-      <c r="H168" t="inlineStr">
-        <is>
           <t>+1 650-422-4583</t>
         </is>
       </c>
-      <c r="I168" t="inlineStr">
+      <c r="I167" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/euysun-hwang/</t>
         </is>

--- a/resource/registrants/registrants.xlsx
+++ b/resource/registrants/registrants.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I167"/>
+  <dimension ref="A1:J167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>1st seminar</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>2nd seminar</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>3rd seminar</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>share info</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>company</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>job title</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>phone number</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>LinkedIn</t>
         </is>
@@ -486,26 +491,27 @@
           <t>Battulga</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>battulga11@gmail.com</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>+1 650-288-8677</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -516,27 +522,28 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Kimgisalab VC</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>VC partner</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>dylankim@kimgisalab.com</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>+1 858-705-2518</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -545,25 +552,26 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>x</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jacob Song</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -573,32 +581,33 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>DeepMind</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Research engineer</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>ja548@cornell.edu</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>+1 646-574-5459</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/james-a-07a0012a8</t>
         </is>
@@ -612,32 +621,33 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>DOJ</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Law clerk</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>kimjm@stanford.edu</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>+1 628-999-0043</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -647,32 +657,33 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>CoAsia SEMI / CoA Silicon</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Market Intelligence</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>junchoi@coasilicon.com</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>+1 619-547-7358</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/jayjunsikchoi/</t>
         </is>
@@ -686,32 +697,33 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>Current Stanford GSB student / Former Bain &amp; Company</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Manager</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>seoyoon@stanford.edu</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>+1 650-788-7248</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/seoyoon-estelle-lee/</t>
         </is>
@@ -725,32 +737,33 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>Emovid</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>CEO</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>victor@emovid.com</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>+1 650-804-9943</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/victor-cho-/</t>
         </is>
@@ -764,32 +777,33 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>Stanford University</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Clinical Fellow</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>limtaehong1198@gmail.com</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>+1 567-202-3854</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/taehong-lim-4ba8191b1</t>
         </is>
@@ -803,32 +817,33 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>Apple</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Deep learning compiler engineer</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>jaeykang55@gmail.com</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>+1 619-721-5527</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/jaeyoung-kang-ku</t>
         </is>
@@ -841,11 +856,7 @@
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
           <t>o</t>
@@ -853,25 +864,30 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>Stanford University</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>ME(Robotics) MS</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>jwkang@stanford.edu</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>+1 650-785-9526</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>https:///www.linkedin.com/in/joonwon-kang</t>
         </is>
@@ -885,32 +901,33 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>Google</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Technical Program Manager</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>jiyang.kang@gmail.com</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>+1 650-966-4808</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/jiyangkang/</t>
         </is>
@@ -922,22 +939,23 @@
           <t>강한길</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr">
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>ckqna2@gmail.com</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -946,37 +964,38 @@
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>x</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Stanford university</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Student</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>hkang13@stanford.edu</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>+1 650-521-3343</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -985,11 +1004,7 @@
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
           <t>o</t>
@@ -997,25 +1012,30 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>Korea University</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Professor</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>jaykoh@korea.ac.kr</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>+1 650-513-9155</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>https:///www.linkedin.com/in/jae-chul-koh-4967a69b/</t>
         </is>
@@ -1029,32 +1049,33 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>STANFORD UNIVERSITY</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>MBA Student</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>jwkoh@stanford.edu</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>+1 415-298-7660</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/stevenjwkoh</t>
         </is>
@@ -1068,32 +1089,33 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>Stanford University</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>PhD student</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>kwonko@stanford.edu</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>+1 650-509-2274</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/hyungkwonko/</t>
         </is>
@@ -1106,11 +1128,7 @@
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
           <t>o</t>
@@ -1118,25 +1136,30 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>STANFORD UNIVERSITY</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Postdoc.</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>kongdy@stanford.edu</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>+1 650-507-9622</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1147,27 +1170,28 @@
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
         <is>
           <t>Sorcerics</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Co-founder/CPO</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>kayla@sorcerics.com</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>+1 669-208-8887</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1175,11 +1199,7 @@
           <t>권규민</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>o</t>
@@ -1187,30 +1207,35 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>x</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Samsung</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Senior Engineer</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>kmkwon@umich.edu</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>+1 734-274-3131</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1218,34 +1243,35 @@
           <t>권규현</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
         <is>
           <t>Hanyang Univ.</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Professor</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>ghkwon@hanyang.ac.kr</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>+82 10-3391-3278</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>https://linkedin.com/in/gyu-hyun-kwon-3aa0784</t>
         </is>
@@ -1259,32 +1285,33 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>Samsung Semiconductor Inc.</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Sr Principal Engineer</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>kmscom@naver.com</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>+1 408-420-2003</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1294,32 +1321,33 @@
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>Stanford GSB</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>MBA</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>seankwon@stanford.edu</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>+1 646-770-6580</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/sean-kwon-633b20101</t>
         </is>
@@ -1332,25 +1360,26 @@
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>x</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr">
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t>권성윤</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1359,11 +1388,7 @@
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
           <t>o</t>
@@ -1371,25 +1396,30 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>Meta</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Product Manager</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>hyunah.kwon@gmail.com</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>+1 650-282-0955</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/hyunahkwon</t>
         </is>
@@ -1402,25 +1432,26 @@
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>x</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr">
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t>권홍동</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1430,32 +1461,33 @@
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>Stanford University</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Postdoc</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>hdkwon@stanford.edu</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>+1 650-387-3779</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1465,32 +1497,33 @@
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>YES Partners</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>VP</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>sunshine.kck@gmail.com</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>+1 650-793-2079</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/sunshinekck</t>
         </is>
@@ -1504,32 +1537,33 @@
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Meta</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Software Engineer</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>kyungtae.m.kim@gmail.com</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>+1 412-915-7792</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/kyungtae-marvin-kim</t>
         </is>
@@ -1542,37 +1576,38 @@
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>x</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>외교부</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>서기관</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>ryanktkim@gmail.com</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>+1 628-297-8148</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>https:///Kyungtae_kim</t>
         </is>
@@ -1584,30 +1619,35 @@
           <t>김계연</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
         <is>
           <t>Genians</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>CTO</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>kyeyeon@genians.com</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>+1 857-259-2499</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/double73</t>
         </is>
@@ -1620,11 +1660,7 @@
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
           <t>o</t>
@@ -1632,25 +1668,30 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
           <t>Stanford University</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>PhD Student</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>cuehyon@stanford.edu</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>+1 650-374-7230</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/cuehyonkim</t>
         </is>
@@ -1663,37 +1704,38 @@
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>x</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Stanford University</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>PhD student</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>gyukim@stanford.edu</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>+1 857-250-1163</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1703,32 +1745,33 @@
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
           <t>SAMSUNG ELECTRONICS</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Staff engineer</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>k24sd88@gmail.com</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>+82 10-3540-9651</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/namyong-kim-0a56b7283</t>
         </is>
@@ -1740,30 +1783,35 @@
           <t>김동균</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
         <is>
           <t>Valley Innovation Partners</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>CEO</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>dkim@valleyinnovationpartners.com</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>+1 650-314-8729</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1771,30 +1819,35 @@
           <t>김동욱</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
         <is>
           <t>SKhynix</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Sr. Director</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>don.kim@us.skhynix.com</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>+1 408-209-5896</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1802,11 +1855,7 @@
           <t>김동준</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>o</t>
@@ -1819,25 +1868,30 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
           <t>Stanford University</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Postdoctoral Researcher</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>dongjun@stanford.edu</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>+1 650-305-1816</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/dongjun-kim-981a661b1/</t>
         </is>
@@ -1850,11 +1904,7 @@
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
           <t>o</t>
@@ -1862,25 +1912,30 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
           <t>Stanford Healthcare</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>audiologist</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>min9509@gmail.com</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>+1 319-512-3416</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/minkyeong-kim</t>
         </is>
@@ -1894,32 +1949,33 @@
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
           <t>Translink Iinvestment</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Managing Partner</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>k.bumsoo@gmail.com</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>+1 650-269-8255</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/bumsoo-kim</t>
         </is>
@@ -1934,27 +1990,28 @@
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
         <is>
           <t>Google</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>ML SWE</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>rickkim95@gmail.com</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>+1 512-938-8820</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1964,32 +2021,33 @@
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
           <t>Wordbricks</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>CEO</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>skim23@stanford.edu</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>+1 650-512-2144</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/tm-sophia/</t>
         </is>
@@ -2002,11 +2060,7 @@
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
           <t>o</t>
@@ -2014,25 +2068,30 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
           <t>EQBR</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>CBO</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>soonkim@eqbr.com</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>+1 425-894-4579</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/soon-kim-b316a427/</t>
         </is>
@@ -2044,30 +2103,35 @@
           <t>김요셉</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
         <is>
           <t>Hangin</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Co-founder</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>yosephkim9@gmail.com</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>+1 917-207-2771</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2075,26 +2139,27 @@
           <t>김유림</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
         <is>
           <t>Intern</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>dyb0256@gmail.com</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2102,34 +2167,35 @@
           <t>김재영</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
         <is>
           <t>Google DeepMind</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>Software Enginner</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>jykim@stanford.edu</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>+1 510-230-7731</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2138,37 +2204,38 @@
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>x</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>Stanford University</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>PhD student</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>jaehk@stanford.edu</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>+1 650-509-2232</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>https:///www.linkedin.com/in/jaehyung-kim-a0509a299</t>
         </is>
@@ -2181,11 +2248,7 @@
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
           <t>o</t>
@@ -2193,25 +2256,30 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
           <t>Pinterest</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>Machine Learning Engineer II</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>freeman9201@gmail.com</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>+1 217-898-8489</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/jonghokim9201/</t>
         </is>
@@ -2226,27 +2294,28 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
         <is>
           <t>IPValue Management Inc.</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>MTS</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>jinkwang.kim@gmail.com</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>+1 408-398-9350</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2255,11 +2324,7 @@
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
           <t>o</t>
@@ -2267,25 +2332,30 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
           <t>Odyssey Ventures</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>CEO</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>kevinkim39@gmail.com</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>+1 669-214-0511</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>https:///www.linkedin.com/in/kevinkim39</t>
         </is>
@@ -2298,11 +2368,7 @@
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
           <t>o</t>
@@ -2310,25 +2376,30 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
           <t>Nelumbo inc.</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>Senior Coating Engineer</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>hskim5696@gmail.com</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>+1 803-931-2539</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/hyungsub-kim-4796b310a</t>
         </is>
@@ -2342,32 +2413,33 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
           <t>Stanford</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>PhD student</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>hjkim516@stanford.edu</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>+1 650-646-8607</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/hyungjin-kim-872546256</t>
         </is>
@@ -2379,38 +2451,39 @@
           <t>김호빈</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
           <t>ParkingAI, Inc.</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>CEO</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>hobin@parkingai.us</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>+1 408-930-0852</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/hobinkim/</t>
         </is>
@@ -2424,32 +2497,33 @@
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
           <t>Desilo. Inc</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>Software Researcher</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>junstar98@gmail.com</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>+1 01047113200</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/hyojun-kim-597b231b7/</t>
         </is>
@@ -2461,11 +2535,7 @@
           <t>노현우</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>o</t>
@@ -2478,25 +2548,30 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
           <t>Apple</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>Senior engineering manager</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>gohenry@gmail.com</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>+1 650-862-5024</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/henry-nho-371ab61a</t>
         </is>
@@ -2508,38 +2583,39 @@
           <t>도주용</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
           <t>WeStory.ai</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>Ceo</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>juyongdo@gmail.com</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>+1 650-521-6478</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>https:///LinkedIn.com/in/juyongdo</t>
         </is>
@@ -2551,34 +2627,35 @@
           <t>류창완</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
         <is>
           <t>Google DeepMind</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>ML Engineer</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>galmacky@gmail.com</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>+1 650-499-7149</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2587,11 +2664,7 @@
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
           <t>o</t>
@@ -2599,25 +2672,30 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
           <t>연세대학교</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>대학원생</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>msv0213@yonsei.ac.kr</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>+1 650-444-3716</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2625,11 +2703,7 @@
           <t>문호근</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>o</t>
@@ -2642,25 +2716,30 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
           <t>Coupa Software</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>AI Trainer</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>alexmooncake@gmail.com</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>+1 661-974-6600</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>https:///1</t>
         </is>
@@ -2673,37 +2752,38 @@
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
           <t>x</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>Stanford university</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>Ph.D. Student</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>lukemin@stanford.edu</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>+1 650-557-8264</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/gmin96</t>
         </is>
@@ -2716,11 +2796,7 @@
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
           <t>o</t>
@@ -2728,25 +2804,30 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
           <t>Likelion</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>US CEO</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>max.min@likelion.net</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>+1 650-436-7905</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/jonghyeonmin</t>
         </is>
@@ -2770,30 +2851,35 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
           <t>x</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>ANAFLASH</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>Director</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>babywolf@gmail.com</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>+1 669-294-4521</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/daesik/</t>
         </is>
@@ -2817,30 +2903,35 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
           <t>x</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>a16z</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>Senior Blockchain Security Engineer</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>daejunpark@gmail.com</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>+1 217-419-1999</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>https://linkedin.com/in/daejunpark</t>
         </is>
@@ -2853,11 +2944,7 @@
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
           <t>o</t>
@@ -2865,25 +2952,30 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
           <t>Lam Research</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>Senior Data Scientist</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>snpark814@gmail.com</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>+1 650-283-1241</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/saena-park-49a852140/</t>
         </is>
@@ -2896,11 +2988,7 @@
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
           <t>o</t>
@@ -2908,25 +2996,30 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
           <t>AWS AI Research</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>Senior Applied Scientist</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>youngsuk@cs.stanford.edu</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>+1 650-422-8541</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/y-park</t>
         </is>
@@ -2950,30 +3043,35 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
           <t>x</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>Samsung Electronics</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>VP</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>happyikas@gmail.com</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>+1 408-790-7683</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/chanik-park-97365b42/</t>
         </is>
@@ -2986,11 +3084,7 @@
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
           <t>o</t>
@@ -2998,25 +3092,30 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
           <t>UCSF Health</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>Pharmacy Manager</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>pharmdmb15@gmail.com</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>+1 573-842-9346</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
           <t>https:///www.linkedin.com/in/minwoobang</t>
         </is>
@@ -3028,26 +3127,27 @@
           <t>배수현</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr"/>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr">
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
         <is>
           <t>bae.soohyun@gmail.com</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>+1 408-659-6336</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3056,11 +3156,7 @@
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
           <t>o</t>
@@ -3068,25 +3164,30 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
           <t>Stanford University</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>PhD Student</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>jhbae110@stanford.edu</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>+1 650-512-4770</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
+      <c r="J69" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/jaehyeok-bae-57b866218/</t>
         </is>
@@ -3099,11 +3200,7 @@
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
           <t>o</t>
@@ -3111,25 +3208,30 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
           <t>KDB Silicon Valley</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>CEO</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>sunghoon.suh@gmail.com</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>+1 408-361-0266</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
+      <c r="J70" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/sunghoon-suh-027779a5/</t>
         </is>
@@ -3142,11 +3244,7 @@
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
           <t>o</t>
@@ -3154,25 +3252,30 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
           <t>Stanford University</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>Masters in CS</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>jhsuh@stanford.edu</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>+1 650-313-9767</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/jihee-suh</t>
         </is>
@@ -3185,11 +3288,7 @@
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
           <t>o</t>
@@ -3197,25 +3296,30 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
           <t>PlusAI</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>Software Engineer</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>hjseoa@gmail.com</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>+1 650-518-9261</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3224,11 +3328,7 @@
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
           <t>o</t>
@@ -3236,25 +3336,30 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
           <t>Stanford University</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>Graduate Student</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>ssul@stanford.edu</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>+1 650-407-8124</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
+      <c r="J73" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/stuartsul/</t>
         </is>
@@ -3268,32 +3373,33 @@
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
           <t>Gladstone Institutes</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>Computational Biologist</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>mushrumrum@gmail.com</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>+1 213-705-7283</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
+      <c r="J74" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/min-gyoung-shin-ph-d-b6a845a4</t>
         </is>
@@ -3305,11 +3411,7 @@
           <t>신민용</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
           <t>o</t>
@@ -3322,25 +3424,30 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
           <t>Phantom AI</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>VP of Engineering</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>minyong.shin@gmail.com</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>+1 650-315-0451</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/minyong-shin-1369a513</t>
         </is>
@@ -3352,26 +3459,27 @@
           <t>안동진</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr"/>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr">
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
         <is>
           <t>djahn711@gmail.com</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>+1 360-359-0036</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3381,32 +3489,33 @@
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
           <t>Samsung Semiconductor Institute</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>Staff SWE</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>ahnsc93@gmail.com</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>+1 949-402-7269</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr">
+      <c r="J77" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/seokchanahn</t>
         </is>
@@ -3418,11 +3527,7 @@
           <t>안지현</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
           <t>o</t>
@@ -3430,30 +3535,35 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
           <t>x</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>SK hynix</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>Program manager</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>janeahn57@gmail.com</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>+1 669-308-1810</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr">
+      <c r="J78" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/jane-ahn-06615666</t>
         </is>
@@ -3467,32 +3577,33 @@
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
           <t>SEMIFIVE US INC</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>General Manager (SVP)</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>agripa00@gmail.com</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>+1 408-702-8439</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr">
+      <c r="J79" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/steven-sungchul-yang-415a92209/</t>
         </is>
@@ -3504,34 +3615,35 @@
           <t>오양진</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr"/>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
         <is>
           <t>AMD</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>Engineer</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>yangjin@alumni.stanford.edu</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>+1 650-434-3389</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3540,11 +3652,7 @@
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
           <t>o</t>
@@ -3552,25 +3660,30 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
           <t>KAIST</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>Professor of Mechanical Engineering</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>ryush@kaist.ac.kr</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>+1 650-661-7825</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr">
+      <c r="J81" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/seunghwa-ryu-29595210</t>
         </is>
@@ -3584,32 +3697,33 @@
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr">
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>Stanford GSB</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>PhD student</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>jisangyu@stanford.edu</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>+1 856-398-0736</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3618,11 +3732,7 @@
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
           <t>o</t>
@@ -3630,25 +3740,30 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
           <t>Samsung</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>Accounting</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>riayu@ucdavis.edu</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>+1 408-709-9907</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr">
+      <c r="J83" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/jihyeongriayu</t>
         </is>
@@ -3660,11 +3775,7 @@
           <t>윤성희</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
           <t>o</t>
@@ -3672,30 +3783,35 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
           <t>x</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>Erudio Bio, Inc.</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>Co-founder &amp; CTO</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>sunghee.yun@gmail.com</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>+1 408-549-4077</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr">
+      <c r="J84" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/sungheeyun/</t>
         </is>
@@ -3710,27 +3826,28 @@
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
         <is>
           <t>PVP</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>MP</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>songyee.yoon@gmail.com</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>+1 408-877-6362</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3739,25 +3856,26 @@
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
           <t>x</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr">
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
         <is>
           <t>kenyy.youn@eclab.me</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3766,11 +3884,7 @@
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
           <t>o</t>
@@ -3778,25 +3892,30 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
           <t>SK Hynix</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>NAND PP&amp;E 담당</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>jaeyeun.yun@sk.com</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>+82 10-3123-5414</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr">
+      <c r="J87" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/jyyun</t>
         </is>
@@ -3809,25 +3928,26 @@
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
           <t>x</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr">
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
         <is>
           <t>윤주열</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3836,37 +3956,38 @@
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
           <t>x</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>Stanford University</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>PhD Candidate</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>chang.m.yun@stanford.edu</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>+1 646-578-9327</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr">
+      <c r="J89" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/chang-m-yun/</t>
         </is>
@@ -3880,32 +4001,33 @@
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
           <t>GFT Ventures</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>Managing Partner</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>jay@gft.vc</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>+1 650-743-0345</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr">
+      <c r="J90" t="inlineStr">
         <is>
           <t>https:///1</t>
         </is>
@@ -3918,29 +4040,30 @@
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
           <t>x</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr">
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr">
         <is>
           <t>leekh9889@naver.com</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>+82 10-8773-9886</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3948,34 +4071,35 @@
           <t>이기우</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr"/>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr">
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
         <is>
           <t>UC Berkeley</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>Postdoctoral Researcher</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>keewoole@gmail.com</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>+1 510-944-9943</t>
         </is>
       </c>
-      <c r="I92" t="inlineStr">
+      <c r="J92" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/keewoolee/</t>
         </is>
@@ -3989,32 +4113,33 @@
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
           <t>Samsung electronics</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>Financial Management team</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>worldlkh@gmail.com</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>+1 01097677343</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4025,27 +4150,28 @@
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr">
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
         <is>
           <t>Snowflake</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>Data Scientist</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>mjya82@gmail.com</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>+1 312-208-9424</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr">
+      <c r="J94" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/myoungji</t>
         </is>
@@ -4058,37 +4184,38 @@
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
           <t>x</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>Sambanova</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>Engineer</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>Smlus@yahoo.com</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>+1 650-504-1988</t>
         </is>
       </c>
-      <c r="I95" t="inlineStr">
+      <c r="J95" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/sang-min-lee-1a9a487/</t>
         </is>
@@ -4101,11 +4228,7 @@
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
           <t>o</t>
@@ -4113,25 +4236,30 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
           <t>Stanford University</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>Postdoctoral Researcher</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>pvaiec@stanford.edu</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>+1 408-752-1643</t>
         </is>
       </c>
-      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4141,32 +4269,33 @@
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr">
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>Stanford University</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>Graduate student</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>sylee23@stanford.edu</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>+1 650-334-9767</t>
         </is>
       </c>
-      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4175,11 +4304,7 @@
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
           <t>o</t>
@@ -4187,25 +4312,30 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
           <t>Google</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>Software Engineer</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>ijleesw@gmail.com</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>+1 650-930-6172</t>
         </is>
       </c>
-      <c r="I98" t="inlineStr">
+      <c r="J98" t="inlineStr">
         <is>
           <t>https://kr.linkedin.com/in/seokwon-lee-b1315015a</t>
         </is>
@@ -4217,34 +4347,39 @@
           <t>이성준</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr"/>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr">
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>Apple</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>Sr staff software engineer</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>sjnicklee@hotmail.com</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>+1 240-505-7513</t>
         </is>
       </c>
-      <c r="I99" t="inlineStr">
+      <c r="J99" t="inlineStr">
         <is>
           <t>https:///www.linkedin.com/in/seonglee</t>
         </is>
@@ -4257,11 +4392,7 @@
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
           <t>o</t>
@@ -4269,25 +4400,30 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
           <t>Woori Venture Partners US</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>Managing Director</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>swlee@woorivp.us</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>+1 408-438-2231</t>
         </is>
       </c>
-      <c r="I100" t="inlineStr">
+      <c r="J100" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/saewook-lee-20a9209</t>
         </is>
@@ -4299,34 +4435,35 @@
           <t>이시우</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr"/>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr">
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
         <is>
           <t>UC Berkeley</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>Graduate student</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>seewoo5@berkeley.edu</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>+1 510-697-0712</t>
         </is>
       </c>
-      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4336,32 +4473,33 @@
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr">
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>Stanford University</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>student</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>shlee26@stanford.edu</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>+1 650-924-9601</t>
         </is>
       </c>
-      <c r="I102" t="inlineStr">
+      <c r="J102" t="inlineStr">
         <is>
           <t>https:///linkedin.com/in/shin-haeng-lee-2490831a0</t>
         </is>
@@ -4374,11 +4512,7 @@
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr">
         <is>
           <t>o</t>
@@ -4386,25 +4520,30 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
           <t>Simpson Thacher</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>Associate Attorney</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>wonkilee@stanford.edu</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>+1 650-788-6245</t>
         </is>
       </c>
-      <c r="I103" t="inlineStr">
+      <c r="J103" t="inlineStr">
         <is>
           <t>https:///linkedin.com/in/wonkilee1125</t>
         </is>
@@ -4417,37 +4556,38 @@
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
           <t>x</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>LOTTE Ventures U.S.</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>Operations Manager</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>yoomi.yi@lotteventures.us</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>+1 669-254-6812</t>
         </is>
       </c>
-      <c r="I104" t="inlineStr">
+      <c r="J104" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/yoomibayarea/</t>
         </is>
@@ -4462,27 +4602,28 @@
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr">
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
         <is>
           <t>HEI (High Entropy Informatics)</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>CEO</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>eunseok@thinkhei.com</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>+1 650-776-1557</t>
         </is>
       </c>
-      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4492,32 +4633,33 @@
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
           <t>Blackhoods Inc.</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>CEO</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>eunho.rhee@gmail.com</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>+82 10-2857-1781</t>
         </is>
       </c>
-      <c r="I106" t="inlineStr">
+      <c r="J106" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/jesserhee/</t>
         </is>
@@ -4530,37 +4672,38 @@
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
           <t>x</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>MakinaRocks</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>ex.CEO</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>philshylove@gmail.com</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>+1 650-313-8919</t>
         </is>
       </c>
-      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4570,32 +4713,33 @@
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr">
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>Immerse</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>Technical Director</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>jungwoo@gmail.com</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>+1 650-690-6610</t>
         </is>
       </c>
-      <c r="I108" t="inlineStr">
+      <c r="J108" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/jungwoo-lee-julian/</t>
         </is>
@@ -4609,32 +4753,33 @@
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
           <t>Global AI Platform Corporation</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>Chief Operating officer</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>joo.lee@a15t.com</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>+1 669-240-9244</t>
         </is>
       </c>
-      <c r="I109" t="inlineStr">
+      <c r="J109" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/jooylee</t>
         </is>
@@ -4647,11 +4792,7 @@
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
           <t>o</t>
@@ -4659,25 +4800,30 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
           <t>Stanford</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>Graduate student</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>jlee313@stanford.edu</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>+1 424-358-8210</t>
         </is>
       </c>
-      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4702,25 +4848,30 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
           <t>Stealth</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>Software Engineer</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>chulki.lee@gmail.com</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
+      <c r="I111" t="inlineStr">
         <is>
           <t>+1 510-316-9709</t>
         </is>
       </c>
-      <c r="I111" t="inlineStr">
+      <c r="J111" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/chulkilee/</t>
         </is>
@@ -4733,11 +4884,7 @@
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr">
         <is>
           <t>o</t>
@@ -4745,25 +4892,30 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
           <t>Stanford University School of Medicine</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>Postdoctoral researcher</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>harrytyl@stanford.edu</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>+1 650-468-5386</t>
         </is>
       </c>
-      <c r="I112" t="inlineStr">
+      <c r="J112" t="inlineStr">
         <is>
           <t>https:///www.linkedin.com/in/harrytyl</t>
         </is>
@@ -4777,32 +4929,33 @@
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
           <t>SynchNeuro</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>Chief Scientist</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t>leeccj@gmail.com</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
+      <c r="I113" t="inlineStr">
         <is>
           <t>+1 734-263-8783</t>
         </is>
       </c>
-      <c r="I113" t="inlineStr">
+      <c r="J113" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/heonsoo-lee-167b7048/</t>
         </is>
@@ -4816,32 +4969,33 @@
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
           <t>Gaonchips America Inc</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>Sr.Manager, US Business Development</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>hmleigh@gaonchips.com</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t>+1 408-992-5497</t>
         </is>
       </c>
-      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -4849,34 +5003,35 @@
           <t>이희영</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr"/>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr">
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr">
         <is>
           <t>waymo</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>engineer</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>heeyoung.lee7@gmail.com</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>+1 650-804-9165</t>
         </is>
       </c>
-      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -4884,38 +5039,43 @@
           <t>임근휘</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
           <t>x</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>Samsung</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>Advisor</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>limgeunhwi@gmail.com</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>+1 650-537-5707</t>
         </is>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -4924,11 +5084,7 @@
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr">
         <is>
           <t>o</t>
@@ -4936,25 +5092,30 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
           <t>LG Uplus</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>Director</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>lgusa@lguplus.co.kr</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t>+1 408-340-3455</t>
         </is>
       </c>
-      <c r="I117" t="inlineStr">
+      <c r="J117" t="inlineStr">
         <is>
           <t>https:///Linkedin.com/in/daehunlim</t>
         </is>
@@ -4966,11 +5127,7 @@
           <t>임동균</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr">
         <is>
           <t>o</t>
@@ -4983,25 +5140,30 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
           <t>SK hynix</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>Sr Manager</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
+      <c r="H118" t="inlineStr">
         <is>
           <t>heartdetect@gmail.com</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
+      <c r="I118" t="inlineStr">
         <is>
           <t>+1 669-629-0134</t>
         </is>
       </c>
-      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -5010,11 +5172,7 @@
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr">
         <is>
           <t>o</t>
@@ -5022,25 +5180,30 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
           <t>Samsung</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>Corporate EVP</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
+      <c r="H119" t="inlineStr">
         <is>
           <t>sukhwan@alumni.stanford.edu</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
+      <c r="I119" t="inlineStr">
         <is>
           <t>+1 650-799-2077</t>
         </is>
       </c>
-      <c r="I119" t="inlineStr">
+      <c r="J119" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/sukhwan</t>
         </is>
@@ -5053,11 +5216,7 @@
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
         <is>
           <t>o</t>
@@ -5065,25 +5224,30 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
           <t>SK hynix</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>Head of Frontline</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
+      <c r="H120" t="inlineStr">
         <is>
           <t>sooyong1.lim@sk.com</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
+      <c r="I120" t="inlineStr">
         <is>
           <t>+1 408-655-1382</t>
         </is>
       </c>
-      <c r="I120" t="inlineStr">
+      <c r="J120" t="inlineStr">
         <is>
           <t>https://linkedin.com/in/soo-yong-lim-62288024</t>
         </is>
@@ -5096,37 +5260,38 @@
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
           <t>x</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>Stanford University</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>Graduate Student</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr">
+      <c r="H121" t="inlineStr">
         <is>
           <t>chihoim@stanford.edu</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
+      <c r="I121" t="inlineStr">
         <is>
           <t>+1 617-301-2326</t>
         </is>
       </c>
-      <c r="I121" t="inlineStr">
+      <c r="J121" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/chiho-im/</t>
         </is>
@@ -5140,32 +5305,33 @@
       </c>
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr">
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>SKH</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>Senior Vice President</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr">
+      <c r="H122" t="inlineStr">
         <is>
           <t>jin.lim@us.skhynix.com</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
+      <c r="I122" t="inlineStr">
         <is>
           <t>+1 650-484-7300</t>
         </is>
       </c>
-      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -5173,30 +5339,35 @@
           <t>장성준</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr"/>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr">
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr">
         <is>
           <t>KATECH</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>KATECH  North America Office</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
+      <c r="H123" t="inlineStr">
         <is>
           <t>nomadjunio@gmail.com</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
+      <c r="I123" t="inlineStr">
         <is>
           <t>+1 408-210-0951</t>
         </is>
       </c>
-      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5204,11 +5375,7 @@
           <t>장준영</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr">
         <is>
           <t>o</t>
@@ -5221,25 +5388,30 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
           <t>한국바이오투자파트너스</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>미주총괄 지사장</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
+      <c r="H124" t="inlineStr">
         <is>
           <t>jedychen@gmail.com</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
+      <c r="I124" t="inlineStr">
         <is>
           <t>+1 669-292-7538</t>
         </is>
       </c>
-      <c r="I124" t="inlineStr">
+      <c r="J124" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/junyeongjang/</t>
         </is>
@@ -5253,32 +5425,33 @@
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
           <t>Google</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>Engineering manager</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr">
+      <c r="H125" t="inlineStr">
         <is>
           <t>jhjang.stanford@gmail.com</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
+      <c r="I125" t="inlineStr">
         <is>
           <t>+1 650-575-6695</t>
         </is>
       </c>
-      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -5286,11 +5459,7 @@
           <t>장하군</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr">
         <is>
           <t>o</t>
@@ -5303,25 +5472,30 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
           <t>Stanford Medicine</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>Sr Research Scientist</t>
         </is>
       </c>
-      <c r="G126" t="inlineStr">
+      <c r="H126" t="inlineStr">
         <is>
           <t>hjang620@stanford.edu</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
+      <c r="I126" t="inlineStr">
         <is>
           <t>+1 650-224-3276</t>
         </is>
       </c>
-      <c r="I126" t="inlineStr">
+      <c r="J126" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/hagoon-jang-79766a54</t>
         </is>
@@ -5333,11 +5507,7 @@
           <t>전수현</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr">
         <is>
           <t>o</t>
@@ -5350,25 +5520,30 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
           <t>SK hynix</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>Market Analyst</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr">
+      <c r="H127" t="inlineStr">
         <is>
           <t>suhyun.jeon@us.skhynix.com</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
+      <c r="I127" t="inlineStr">
         <is>
           <t>+1 614-961-6270</t>
         </is>
       </c>
-      <c r="I127" t="inlineStr">
+      <c r="J127" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in//shjjeon</t>
         </is>
@@ -5380,34 +5555,35 @@
           <t>전희선</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr"/>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr">
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr">
         <is>
           <t>Apptest.ai</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>Intern</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr">
+      <c r="H128" t="inlineStr">
         <is>
           <t>hsys0806@gmail.com</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
+      <c r="I128" t="inlineStr">
         <is>
           <t>+1 408-592-7080</t>
         </is>
       </c>
-      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -5417,32 +5593,33 @@
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
           <t>Chungnam National University</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>Associate Professor</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr">
+      <c r="H129" t="inlineStr">
         <is>
           <t>gracedy84@gmail.com</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
+      <c r="I129" t="inlineStr">
         <is>
           <t>+1 821095217055</t>
         </is>
       </c>
-      <c r="I129" t="inlineStr">
+      <c r="J129" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/dayoungjeong</t>
         </is>
@@ -5454,34 +5631,39 @@
           <t>정미숙</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr"/>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
           <t>Micron Technology</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>Global Compensation Director</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr">
+      <c r="H130" t="inlineStr">
         <is>
           <t>misookchung1226@gmail.com</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
+      <c r="I130" t="inlineStr">
         <is>
           <t>+1 650-864-2873</t>
         </is>
       </c>
-      <c r="I130" t="inlineStr">
+      <c r="J130" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/misook-chung/</t>
         </is>
@@ -5495,32 +5677,33 @@
       </c>
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
           <t>Stanford University</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>Student</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr">
+      <c r="H131" t="inlineStr">
         <is>
           <t>collinj2@stanford.edu</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
+      <c r="I131" t="inlineStr">
         <is>
           <t>+1 217-778-7328</t>
         </is>
       </c>
-      <c r="I131" t="inlineStr">
+      <c r="J131" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/collin-jung</t>
         </is>
@@ -5533,11 +5716,7 @@
         </is>
       </c>
       <c r="B132" t="inlineStr"/>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr">
         <is>
           <t>o</t>
@@ -5545,25 +5724,30 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
           <t>Stanford University</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>PhD Student</t>
         </is>
       </c>
-      <c r="G132" t="inlineStr">
+      <c r="H132" t="inlineStr">
         <is>
           <t>sehui@stanford.edu</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
+      <c r="I132" t="inlineStr">
         <is>
           <t>+1 650-609-1374</t>
         </is>
       </c>
-      <c r="I132" t="inlineStr">
+      <c r="J132" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/sehui-jeong-0509241a4</t>
         </is>
@@ -5577,32 +5761,33 @@
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr"/>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
           <t>Stanford Medicine</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>Research Associate</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr">
+      <c r="H133" t="inlineStr">
         <is>
           <t>yejeong@stanford.edu</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
+      <c r="I133" t="inlineStr">
         <is>
           <t>+1 615-506-1322</t>
         </is>
       </c>
-      <c r="I133" t="inlineStr">
+      <c r="J133" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/jeannie-yejin-jeong</t>
         </is>
@@ -5615,37 +5800,38 @@
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
           <t>x</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>LG Silicon Valley Emerging Tech Lab</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>Sr. Director / Team Leader</t>
         </is>
       </c>
-      <c r="G134" t="inlineStr">
+      <c r="H134" t="inlineStr">
         <is>
           <t>wooseong.chung@lge.com</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
+      <c r="I134" t="inlineStr">
         <is>
           <t>+1 408-510-1339</t>
         </is>
       </c>
-      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -5654,37 +5840,38 @@
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
           <t>x</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>USF</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>Associate Professor</t>
         </is>
       </c>
-      <c r="G135" t="inlineStr">
+      <c r="H135" t="inlineStr">
         <is>
           <t>eunjin.jung@gmail.com</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
+      <c r="I135" t="inlineStr">
         <is>
           <t>+1 650-924-9079</t>
         </is>
       </c>
-      <c r="I135" t="inlineStr">
+      <c r="J135" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/ej-jung/</t>
         </is>
@@ -5697,11 +5884,7 @@
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr">
         <is>
           <t>o</t>
@@ -5709,25 +5892,30 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
           <t>Waymo</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>Software Engineer</t>
         </is>
       </c>
-      <c r="G136" t="inlineStr">
+      <c r="H136" t="inlineStr">
         <is>
           <t>wwee3631@gmail.com</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
+      <c r="I136" t="inlineStr">
         <is>
           <t>+1 669-977-9158</t>
         </is>
       </c>
-      <c r="I136" t="inlineStr">
+      <c r="J136" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/taeheejeong/</t>
         </is>
@@ -5740,11 +5928,7 @@
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr">
         <is>
           <t>o</t>
@@ -5752,25 +5936,30 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
           <t>Stanford University</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>Student</t>
         </is>
       </c>
-      <c r="G137" t="inlineStr">
+      <c r="H137" t="inlineStr">
         <is>
           <t>hansol2@stanford.edu</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
+      <c r="I137" t="inlineStr">
         <is>
           <t>+1 630-698-4717</t>
         </is>
       </c>
-      <c r="I137" t="inlineStr">
+      <c r="J137" t="inlineStr">
         <is>
           <t>https:///linkedin.com/in/esther-hansol-chung-071b9b19b</t>
         </is>
@@ -5783,37 +5972,38 @@
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
           <t>x</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>Samsung Electronics</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>Sr. Marketing Communications Specialist</t>
         </is>
       </c>
-      <c r="G138" t="inlineStr">
+      <c r="H138" t="inlineStr">
         <is>
           <t>lydia.chung1@gmail.com</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
+      <c r="I138" t="inlineStr">
         <is>
           <t>+1 669-342-9825</t>
         </is>
       </c>
-      <c r="I138" t="inlineStr">
+      <c r="J138" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/lydia-chung-98a4671a0/</t>
         </is>
@@ -5826,11 +6016,7 @@
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr">
         <is>
           <t>o</t>
@@ -5838,25 +6024,30 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
           <t>Synopsys</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>Director of Sales and Business Development</t>
         </is>
       </c>
-      <c r="G139" t="inlineStr">
+      <c r="H139" t="inlineStr">
         <is>
           <t>largon@gmail.com</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
+      <c r="I139" t="inlineStr">
         <is>
           <t>+1 408-497-3022</t>
         </is>
       </c>
-      <c r="I139" t="inlineStr">
+      <c r="J139" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/lukehychung/</t>
         </is>
@@ -5869,11 +6060,7 @@
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr">
         <is>
           <t>o</t>
@@ -5881,25 +6068,30 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
           <t>SK hynix</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>Head of Venture Investment</t>
         </is>
       </c>
-      <c r="G140" t="inlineStr">
+      <c r="H140" t="inlineStr">
         <is>
           <t>heejin.chung@us.skhynix.com</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
+      <c r="I140" t="inlineStr">
         <is>
           <t>+1 408-628-3607</t>
         </is>
       </c>
-      <c r="I140" t="inlineStr">
+      <c r="J140" t="inlineStr">
         <is>
           <t>https://linkedin.com/in/heejin-chung-3576351</t>
         </is>
@@ -5913,32 +6105,33 @@
       </c>
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
           <t>MVLASF Holdings</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>CEO</t>
         </is>
       </c>
-      <c r="G141" t="inlineStr">
+      <c r="H141" t="inlineStr">
         <is>
           <t>andrea.jo@mvlasf.com</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
+      <c r="I141" t="inlineStr">
         <is>
           <t>+1 408-220-4041</t>
         </is>
       </c>
-      <c r="I141" t="inlineStr">
+      <c r="J141" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/gyehyon-andrea-jo</t>
         </is>
@@ -5962,30 +6155,35 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
           <t>x</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>stealth</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>stealth</t>
         </is>
       </c>
-      <c r="G142" t="inlineStr">
+      <c r="H142" t="inlineStr">
         <is>
           <t>christine7597@gmail.com</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
+      <c r="I142" t="inlineStr">
         <is>
           <t>+1 510-561-9348</t>
         </is>
       </c>
-      <c r="I142" t="inlineStr">
+      <c r="J142" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/christine-c-5b8b4b168/</t>
         </is>
@@ -5999,32 +6197,33 @@
       </c>
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
           <t>Meta</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>Senior Staff SWE</t>
         </is>
       </c>
-      <c r="G143" t="inlineStr">
+      <c r="H143" t="inlineStr">
         <is>
           <t>sjcho123@gmail.com</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
+      <c r="I143" t="inlineStr">
         <is>
           <t>+1 650-215-8119</t>
         </is>
       </c>
-      <c r="I143" t="inlineStr">
+      <c r="J143" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/sjcho</t>
         </is>
@@ -6039,27 +6238,28 @@
       <c r="B144" t="inlineStr"/>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr"/>
-      <c r="E144" t="inlineStr">
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr">
         <is>
           <t>Keeworks</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>Board Member</t>
         </is>
       </c>
-      <c r="G144" t="inlineStr">
+      <c r="H144" t="inlineStr">
         <is>
           <t>siyungj@gmail.com</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
+      <c r="I144" t="inlineStr">
         <is>
           <t>+82 10-9459-4385</t>
         </is>
       </c>
-      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -6069,32 +6269,33 @@
       </c>
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
           <t>Stanford University</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>Postdoctoral Researcher</t>
         </is>
       </c>
-      <c r="G145" t="inlineStr">
+      <c r="H145" t="inlineStr">
         <is>
           <t>choara@stanford.edu</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
+      <c r="I145" t="inlineStr">
         <is>
           <t>+1 669-260-4894</t>
         </is>
       </c>
-      <c r="I145" t="inlineStr">
+      <c r="J145" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/ara-cho-508b7625b/</t>
         </is>
@@ -6107,11 +6308,7 @@
         </is>
       </c>
       <c r="B146" t="inlineStr"/>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr">
         <is>
           <t>o</t>
@@ -6119,25 +6316,30 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
           <t>Audi of America</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>ADAS Software Engineer</t>
         </is>
       </c>
-      <c r="G146" t="inlineStr">
+      <c r="H146" t="inlineStr">
         <is>
           <t>jeonghyunjason@gmail.com</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
+      <c r="I146" t="inlineStr">
         <is>
           <t>+1 415-444-6985</t>
         </is>
       </c>
-      <c r="I146" t="inlineStr">
+      <c r="J146" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/jeonghyunjo/</t>
         </is>
@@ -6151,32 +6353,33 @@
       </c>
       <c r="B147" t="inlineStr"/>
       <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
           <t>SynStation</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>CEO</t>
         </is>
       </c>
-      <c r="G147" t="inlineStr">
+      <c r="H147" t="inlineStr">
         <is>
           <t>eugene@wasd3r.xyz</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
+      <c r="I147" t="inlineStr">
         <is>
           <t>+1 510-499-9248</t>
         </is>
       </c>
-      <c r="I147" t="inlineStr">
+      <c r="J147" t="inlineStr">
         <is>
           <t>https:///Linkedin.com/in/ekjoo</t>
         </is>
@@ -6188,38 +6391,39 @@
           <t>진승환</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr"/>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
           <t>StartupSprintK</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>CEO</t>
         </is>
       </c>
-      <c r="G148" t="inlineStr">
+      <c r="H148" t="inlineStr">
         <is>
           <t>seunghwan.jin@gmail.com</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
+      <c r="I148" t="inlineStr">
         <is>
           <t>+1 650-695-8692</t>
         </is>
       </c>
-      <c r="I148" t="inlineStr">
+      <c r="J148" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/seunghwan-jin/</t>
         </is>
@@ -6233,32 +6437,33 @@
       </c>
       <c r="B149" t="inlineStr"/>
       <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
           <t>April Labs</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>Product Manager</t>
         </is>
       </c>
-      <c r="G149" t="inlineStr">
+      <c r="H149" t="inlineStr">
         <is>
           <t>yongjin.jin@gmail.com</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
+      <c r="I149" t="inlineStr">
         <is>
           <t>+1 650-289-8487</t>
         </is>
       </c>
-      <c r="I149" t="inlineStr">
+      <c r="J149" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/yongjinjin</t>
         </is>
@@ -6271,11 +6476,7 @@
         </is>
       </c>
       <c r="B150" t="inlineStr"/>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr">
         <is>
           <t>o</t>
@@ -6283,25 +6484,30 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
           <t>Higher Life Ventures</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>Managing Partner</t>
         </is>
       </c>
-      <c r="G150" t="inlineStr">
+      <c r="H150" t="inlineStr">
         <is>
           <t>dongjoon@hlv.vc</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
+      <c r="I150" t="inlineStr">
         <is>
           <t>+1 650-336-4372</t>
         </is>
       </c>
-      <c r="I150" t="inlineStr">
+      <c r="J150" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/djcha3</t>
         </is>
@@ -6325,30 +6531,35 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
           <t>x</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>CryptoLab Inc.</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>CEO</t>
         </is>
       </c>
-      <c r="G151" t="inlineStr">
+      <c r="H151" t="inlineStr">
         <is>
           <t>jhcheon@snu.ac.kr</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
+      <c r="I151" t="inlineStr">
         <is>
           <t>+82 10-9767-1912</t>
         </is>
       </c>
-      <c r="I151" t="inlineStr">
+      <c r="J151" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/jung-hee-cheon-35721918/</t>
         </is>
@@ -6361,11 +6572,7 @@
         </is>
       </c>
       <c r="B152" t="inlineStr"/>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr">
         <is>
           <t>o</t>
@@ -6373,25 +6580,30 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
           <t>Independent</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>Robot Learning Engineer</t>
         </is>
       </c>
-      <c r="G152" t="inlineStr">
+      <c r="H152" t="inlineStr">
         <is>
           <t>choe.kyoung@gmail.com</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
+      <c r="I152" t="inlineStr">
         <is>
           <t>+1 872-818-4539</t>
         </is>
       </c>
-      <c r="I152" t="inlineStr">
+      <c r="J152" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/kywch</t>
         </is>
@@ -6406,27 +6618,28 @@
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr"/>
-      <c r="E153" t="inlineStr">
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr">
         <is>
           <t>Regent University</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>Professor</t>
         </is>
       </c>
-      <c r="G153" t="inlineStr">
+      <c r="H153" t="inlineStr">
         <is>
           <t>ychoi@regent.edu</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
+      <c r="I153" t="inlineStr">
         <is>
           <t>+1 757-353-4949</t>
         </is>
       </c>
-      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -6434,34 +6647,35 @@
           <t>최종록</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr"/>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="D154" t="inlineStr"/>
-      <c r="E154" t="inlineStr">
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr">
         <is>
           <t>Samsung SDI</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>Pro</t>
         </is>
       </c>
-      <c r="G154" t="inlineStr">
+      <c r="H154" t="inlineStr">
         <is>
           <t>jongrock@gmail.com</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
+      <c r="I154" t="inlineStr">
         <is>
           <t>+1 650-942-1052</t>
         </is>
       </c>
-      <c r="I154" t="inlineStr">
+      <c r="J154" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/종록-최-212122246</t>
         </is>
@@ -6474,37 +6688,38 @@
         </is>
       </c>
       <c r="B155" t="inlineStr"/>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
           <t>x</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="F155" t="inlineStr">
         <is>
           <t>Stanford University</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>Student</t>
         </is>
       </c>
-      <c r="G155" t="inlineStr">
+      <c r="H155" t="inlineStr">
         <is>
           <t>choejms@stanford.edu</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
+      <c r="I155" t="inlineStr">
         <is>
           <t>+1 650-507-5712</t>
         </is>
       </c>
-      <c r="I155" t="inlineStr">
+      <c r="J155" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/jeeho-choe-84a143156/</t>
         </is>
@@ -6518,32 +6733,33 @@
       </c>
       <c r="B156" t="inlineStr"/>
       <c r="C156" t="inlineStr"/>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
           <t>Electronic Arts</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
+      <c r="G156" t="inlineStr">
         <is>
           <t>Software Engineer</t>
         </is>
       </c>
-      <c r="G156" t="inlineStr">
+      <c r="H156" t="inlineStr">
         <is>
           <t>haejoonchoi@outlook.com</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
+      <c r="I156" t="inlineStr">
         <is>
           <t>+1 778-899-6669</t>
         </is>
       </c>
-      <c r="I156" t="inlineStr">
+      <c r="J156" t="inlineStr">
         <is>
           <t>https:///LinkedIn.com/in/haejoonchoi</t>
         </is>
@@ -6556,11 +6772,7 @@
         </is>
       </c>
       <c r="B157" t="inlineStr"/>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr">
         <is>
           <t>o</t>
@@ -6568,25 +6780,30 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
           <t>Stanford University</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>Graduate Student</t>
         </is>
       </c>
-      <c r="G157" t="inlineStr">
+      <c r="H157" t="inlineStr">
         <is>
           <t>jhpaeng@stanford.edu</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
+      <c r="I157" t="inlineStr">
         <is>
           <t>+1 650-512-6379</t>
         </is>
       </c>
-      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -6596,32 +6813,33 @@
       </c>
       <c r="B158" t="inlineStr"/>
       <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
           <t>Valleyinnovationpartners</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>Co-Founder</t>
         </is>
       </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>ywha.p2o.@gmail.com</t>
-        </is>
-      </c>
       <c r="H158" t="inlineStr">
         <is>
+          <t>ywha.p2o@gmail.com</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
           <t>+1 408-747-7247</t>
         </is>
       </c>
-      <c r="I158" t="inlineStr">
+      <c r="J158" t="inlineStr">
         <is>
           <t>https:///www.linkedin.com/in/young-wook-ha</t>
         </is>
@@ -6635,32 +6853,33 @@
       </c>
       <c r="B159" t="inlineStr"/>
       <c r="C159" t="inlineStr"/>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
           <t>Stanford GSB</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>MBA1</t>
         </is>
       </c>
-      <c r="G159" t="inlineStr">
+      <c r="H159" t="inlineStr">
         <is>
           <t>sjhan26@stanford.edu</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
+      <c r="I159" t="inlineStr">
         <is>
           <t>+1 650-512-7236</t>
         </is>
       </c>
-      <c r="I159" t="inlineStr">
+      <c r="J159" t="inlineStr">
         <is>
           <t>https:///www.linkedin.com/in/han-soojung</t>
         </is>
@@ -6673,11 +6892,7 @@
         </is>
       </c>
       <c r="B160" t="inlineStr"/>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr">
         <is>
           <t>o</t>
@@ -6685,25 +6900,30 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
           <t>Samsung Semiconductor</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>Senior Manager</t>
         </is>
       </c>
-      <c r="G160" t="inlineStr">
+      <c r="H160" t="inlineStr">
         <is>
           <t>sungok0125@gmail.com</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
+      <c r="I160" t="inlineStr">
         <is>
           <t>+1 408-340-4744</t>
         </is>
       </c>
-      <c r="I160" t="inlineStr">
+      <c r="J160" t="inlineStr">
         <is>
           <t>https:///www.linkedin.com/in/ella-soy-heo</t>
         </is>
@@ -6720,29 +6940,34 @@
           <t>o</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr"/>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="D161" t="inlineStr"/>
-      <c r="E161" t="inlineStr">
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr">
         <is>
           <t>UClone Inc</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
+      <c r="G161" t="inlineStr">
         <is>
           <t>CEO</t>
         </is>
       </c>
-      <c r="G161" t="inlineStr">
+      <c r="H161" t="inlineStr">
         <is>
           <t>danielhur@uclone.net</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
+      <c r="I161" t="inlineStr">
         <is>
           <t>+1 408-499-6876</t>
         </is>
       </c>
-      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -6751,37 +6976,38 @@
         </is>
       </c>
       <c r="B162" t="inlineStr"/>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
           <t>x</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
+      <c r="F162" t="inlineStr">
         <is>
           <t>Stanford University</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>Graduate Student</t>
         </is>
       </c>
-      <c r="G162" t="inlineStr">
+      <c r="H162" t="inlineStr">
         <is>
           <t>wbfprp@stanford.edu</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
+      <c r="I162" t="inlineStr">
         <is>
           <t>+1 650-289-8265</t>
         </is>
       </c>
-      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -6789,26 +7015,27 @@
           <t>홍창기</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr"/>
+      <c r="B163" t="inlineStr"/>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr">
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr">
         <is>
           <t>ck971120@gmail.com</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
+      <c r="I163" t="inlineStr">
         <is>
           <t>+1 408-504-8539</t>
         </is>
       </c>
-      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -6817,37 +7044,38 @@
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
           <t>x</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
+      <c r="F164" t="inlineStr">
         <is>
           <t>Stanford University</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>Graduate Student (Ph.D.)</t>
         </is>
       </c>
-      <c r="G164" t="inlineStr">
+      <c r="H164" t="inlineStr">
         <is>
           <t>doyunh@stanford.edu</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
+      <c r="I164" t="inlineStr">
         <is>
           <t>+1 650-468-0741</t>
         </is>
       </c>
-      <c r="I164" t="inlineStr">
+      <c r="J164" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/doyun-hwang/</t>
         </is>
@@ -6860,25 +7088,26 @@
         </is>
       </c>
       <c r="B165" t="inlineStr"/>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
           <t>x</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr">
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr">
         <is>
           <t>minha.hwang@gmail.com</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr"/>
-      <c r="I165" t="inlineStr">
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
         <is>
           <t>https:///linkedin.com/in/minha-hwang-7440771</t>
         </is>
@@ -6893,27 +7122,28 @@
       <c r="B166" t="inlineStr"/>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr"/>
-      <c r="E166" t="inlineStr">
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr">
         <is>
           <t>WeStory</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>CTO</t>
         </is>
       </c>
-      <c r="G166" t="inlineStr">
+      <c r="H166" t="inlineStr">
         <is>
           <t>freeaion@gmail.com</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
+      <c r="I166" t="inlineStr">
         <is>
           <t>+1 949-436-8067</t>
         </is>
       </c>
-      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -6923,32 +7153,33 @@
       </c>
       <c r="B167" t="inlineStr"/>
       <c r="C167" t="inlineStr"/>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
           <t>Stanford</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>Student</t>
         </is>
       </c>
-      <c r="G167" t="inlineStr">
+      <c r="H167" t="inlineStr">
         <is>
           <t>euysun@stanford.edu</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
+      <c r="I167" t="inlineStr">
         <is>
           <t>+1 650-422-4583</t>
         </is>
       </c>
-      <c r="I167" t="inlineStr">
+      <c r="J167" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/euysun-hwang/</t>
         </is>
